--- a/8通道控制仪二级菜单地址.xlsx
+++ b/8通道控制仪二级菜单地址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12195" tabRatio="307"/>
+    <workbookView windowWidth="15045" windowHeight="12195" tabRatio="307"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,76 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设定参数使用06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取参数使用03</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取时最多连续读8个字节</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F4" authorId="0">
       <text>
         <r>
@@ -388,6 +458,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取时最多连续读8个字节</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F13" authorId="0">
       <text>
         <r>
@@ -757,6 +849,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取时最多连续读8个字节</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F22" authorId="0">
       <text>
         <r>
@@ -1126,6 +1240,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取时最多连续读8个字节</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F31" authorId="0">
       <text>
         <r>
@@ -1495,6 +1631,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取时最多连续读8个字节</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F40" authorId="0">
       <text>
         <r>
@@ -1864,6 +2022,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取时最多连续读8个字节</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F49" authorId="0">
       <text>
         <r>
@@ -2233,6 +2413,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取时最多连续读8个字节</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F58" authorId="0">
       <text>
         <r>
@@ -2599,6 +2801,28 @@
             <charset val="134"/>
           </rPr>
           <t>0000,0001,0002,0003,0004,0005,0006</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G66" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取时最多连续读8个字节</t>
         </r>
       </text>
     </comment>
@@ -2976,7 +3200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="114">
   <si>
     <t>各通道二级菜单的地址</t>
   </si>
@@ -2999,6 +3223,9 @@
     <t>设定值参考</t>
   </si>
   <si>
+    <t>读取值</t>
+  </si>
+  <si>
     <t>SU</t>
   </si>
   <si>
@@ -3017,6 +3244,9 @@
     <t>01AE（43℃,430）</t>
   </si>
   <si>
+    <t>01AE</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -3044,6 +3274,9 @@
     <t>0000</t>
   </si>
   <si>
+    <t>000C</t>
+  </si>
+  <si>
     <t>PID</t>
   </si>
   <si>
@@ -3057,6 +3290,9 @@
   </si>
   <si>
     <t>15.0,240,30</t>
+  </si>
+  <si>
+    <t>0096,00F0,001E</t>
   </si>
   <si>
     <t>HY</t>
@@ -3313,10 +3549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3365,9 +3601,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3382,53 +3662,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3449,23 +3693,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3480,30 +3739,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3534,6 +3770,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3546,37 +3902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3588,25 +3926,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3618,103 +3944,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3725,48 +3961,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3781,6 +3975,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3817,11 +4020,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3833,10 +4069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3845,133 +4081,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4325,13 +4561,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
@@ -4360,7 +4596,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="20.5" customHeight="1" spans="1:6">
+    <row r="3" ht="20.5" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4379,170 +4615,197 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="20.5" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="20.5" customHeight="1" spans="1:6">
+    </row>
+    <row r="6" ht="20.5" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="20.5" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="20.5" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="20.5" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="20.5" customHeight="1" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
@@ -4559,170 +4822,197 @@
       <c r="F12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="20.5" customHeight="1" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="20.5" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -4739,170 +5029,197 @@
       <c r="F21" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" ht="20.5" customHeight="1" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="20.5" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="20.5" customHeight="1" spans="1:7">
       <c r="A23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="20.5" customHeight="1" spans="1:6">
+    </row>
+    <row r="24" ht="20.5" customHeight="1" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="20.5" customHeight="1" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" ht="20.5" customHeight="1" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="20.5" customHeight="1" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" ht="20.5" customHeight="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>2</v>
@@ -4919,170 +5236,197 @@
       <c r="F30" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" ht="20.5" customHeight="1" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" ht="20.5" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="20.5" customHeight="1" spans="1:7">
       <c r="A32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" ht="20.5" customHeight="1" spans="1:6">
+    </row>
+    <row r="33" ht="20.5" customHeight="1" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="20.5" customHeight="1" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" ht="20.5" customHeight="1" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" ht="20.5" customHeight="1" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" ht="20.5" customHeight="1" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>2</v>
@@ -5099,170 +5443,197 @@
       <c r="F39" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" ht="20.5" customHeight="1" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" ht="20.5" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" ht="20.5" customHeight="1" spans="1:7">
       <c r="A41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="G41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" ht="20.5" customHeight="1" spans="1:6">
+    </row>
+    <row r="42" ht="20.5" customHeight="1" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="20.5" customHeight="1" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" ht="20.5" customHeight="1" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" ht="20.5" customHeight="1" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" ht="20.5" customHeight="1" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>2</v>
@@ -5279,170 +5650,197 @@
       <c r="F48" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" ht="20.5" customHeight="1" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="20.5" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" ht="20.5" customHeight="1" spans="1:7">
       <c r="A50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="G50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="20.5" customHeight="1" spans="1:6">
+    </row>
+    <row r="51" ht="20.5" customHeight="1" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" ht="20.5" customHeight="1" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A53" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" ht="20.5" customHeight="1" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E55" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" ht="20.5" customHeight="1" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" ht="20.5" customHeight="1" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>2</v>
@@ -5459,170 +5857,197 @@
       <c r="F57" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" ht="20.5" customHeight="1" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="20.5" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" ht="20.5" customHeight="1" spans="1:7">
       <c r="A59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="20.5" customHeight="1" spans="1:6">
+    </row>
+    <row r="60" ht="20.5" customHeight="1" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" ht="20.5" customHeight="1" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A62" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A63" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" ht="20.5" customHeight="1" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" ht="20.5" customHeight="1" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" ht="20.5" customHeight="1" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>2</v>
@@ -5639,165 +6064,192 @@
       <c r="F66" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" ht="20.5" customHeight="1" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" ht="20.5" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" ht="20.5" customHeight="1" spans="1:7">
       <c r="A68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="G68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" ht="20.5" customHeight="1" spans="1:6">
+    </row>
+    <row r="69" ht="20.5" customHeight="1" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" ht="20.5" customHeight="1" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A71" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" ht="20.5" customHeight="1" spans="1:6">
-      <c r="A72" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" ht="20.5" customHeight="1" spans="1:6">
+      <c r="G72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" ht="20.5" customHeight="1" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E73" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" ht="20.5" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" ht="20.5" customHeight="1" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="20.5" customHeight="1"/>

--- a/8通道控制仪二级菜单地址.xlsx
+++ b/8通道控制仪二级菜单地址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15045" windowHeight="12195" tabRatio="307"/>
+    <workbookView windowWidth="13845" windowHeight="12195" tabRatio="307"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3549,10 +3549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3617,7 +3617,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3632,22 +3701,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3662,77 +3724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3742,6 +3734,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3770,7 +3770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3782,7 +3782,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3794,19 +3866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3818,19 +3896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3842,25 +3920,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3872,85 +3950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3979,6 +3979,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4003,17 +4033,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4026,41 +4061,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4069,10 +4069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4081,133 +4081,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4563,8 +4563,8 @@
   <sheetPr/>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/8通道控制仪二级菜单地址.xlsx
+++ b/8通道控制仪二级菜单地址.xlsx
@@ -3549,10 +3549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3602,30 +3602,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3633,36 +3617,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3676,27 +3631,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3715,23 +3660,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3742,6 +3696,52 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3770,7 +3770,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3782,13 +3872,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3800,13 +3932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3818,139 +3950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3975,45 +3975,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4044,11 +4005,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4061,6 +4028,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4069,10 +4069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4081,133 +4081,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4564,7 +4564,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/8通道控制仪二级菜单地址.xlsx
+++ b/8通道控制仪二级菜单地址.xlsx
@@ -458,11 +458,72 @@
         </r>
       </text>
     </comment>
+    <comment ref="C12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G12" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -480,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0">
+    <comment ref="F16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -601,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="F18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="F19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -755,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0">
+    <comment ref="F20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -849,7 +910,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="C22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -871,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -901,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0">
+    <comment ref="F25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -931,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0">
+    <comment ref="F26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +1084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="C27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0">
+    <comment ref="F27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0">
+    <comment ref="F28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0">
+    <comment ref="F29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1146,7 +1268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1177,7 +1299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0">
+    <comment ref="F31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1362,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0">
+    <comment ref="C32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1262,7 +1445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0">
+    <comment ref="F34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1292,7 +1475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0">
+    <comment ref="F35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1322,7 +1505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0">
+    <comment ref="F36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1353,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
+    <comment ref="C37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1383,7 +1566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0">
+    <comment ref="F37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1447,7 +1630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0">
+    <comment ref="C38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F35" authorId="0">
+    <comment ref="F38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1507,7 +1690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F36" authorId="0">
+    <comment ref="F39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1537,7 +1720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0">
+    <comment ref="F40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1568,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1601,7 +1784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0">
+    <comment ref="F41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1631,7 +1814,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0">
+    <comment ref="C42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0">
+    <comment ref="F44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1683,7 +1927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0">
+    <comment ref="F45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="0">
+    <comment ref="F46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1744,7 +1988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0">
+    <comment ref="C47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1774,7 +2018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0">
+    <comment ref="D47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1806,7 +2050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0">
+    <comment ref="F47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1838,7 +2082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0">
+    <comment ref="C48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1868,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0">
+    <comment ref="F48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1898,7 +2142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0">
+    <comment ref="F49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1928,7 +2172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="0">
+    <comment ref="F50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1959,7 +2203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0">
+    <comment ref="C51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1992,7 +2236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0">
+    <comment ref="F51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2022,7 +2266,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="0">
+    <comment ref="C52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2044,7 +2349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F49" authorId="0">
+    <comment ref="F54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2074,7 +2379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0">
+    <comment ref="F55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2104,7 +2409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0">
+    <comment ref="F56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2135,7 +2440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2165,7 +2470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0">
+    <comment ref="D57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2197,7 +2502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0">
+    <comment ref="F57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2229,7 +2534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0">
+    <comment ref="C58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2259,7 +2564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="0">
+    <comment ref="F58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2289,7 +2594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0">
+    <comment ref="F59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2319,7 +2624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0">
+    <comment ref="F60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2350,7 +2655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2383,7 +2688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0">
+    <comment ref="F61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2413,7 +2718,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="G57" authorId="0">
+    <comment ref="C62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2435,7 +2801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F58" authorId="0">
+    <comment ref="F64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2465,7 +2831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="0">
+    <comment ref="F65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2495,7 +2861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="0">
+    <comment ref="F66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2526,7 +2892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0">
+    <comment ref="C67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2556,7 +2922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0">
+    <comment ref="D67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2588,7 +2954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="0">
+    <comment ref="F67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2620,7 +2986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0">
+    <comment ref="C68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2650,7 +3016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0">
+    <comment ref="F68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2680,7 +3046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0">
+    <comment ref="F69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2710,7 +3076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F64" authorId="0">
+    <comment ref="F70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2741,7 +3107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0">
+    <comment ref="C71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2774,7 +3140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="0">
+    <comment ref="F71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2804,7 +3170,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="0">
+    <comment ref="C72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2826,7 +3253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="0">
+    <comment ref="F74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2856,7 +3283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0">
+    <comment ref="F75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2886,7 +3313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="0">
+    <comment ref="F76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2917,7 +3344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0">
+    <comment ref="C77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2947,7 +3374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="0">
+    <comment ref="D77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2979,7 +3406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="0">
+    <comment ref="F77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3011,7 +3438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0">
+    <comment ref="C78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3041,7 +3468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="0">
+    <comment ref="F78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3071,7 +3498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="0">
+    <comment ref="F79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3101,7 +3528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0">
+    <comment ref="F80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3132,7 +3559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0">
+    <comment ref="C81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3165,7 +3592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0">
+    <comment ref="F81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3192,6 +3619,67 @@
             <charset val="134"/>
           </rPr>
           <t>0000,0001,0002,0003,0004,0005,0006</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+读取的温度为两个字节，例如读出01B1，换成10进制为433，实际温度为43.3℃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -3200,7 +3688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="125">
   <si>
     <t>各通道二级菜单的地址</t>
   </si>
@@ -3355,6 +3843,18 @@
     <t>0012</t>
   </si>
   <si>
+    <t>读取温度</t>
+  </si>
+  <si>
+    <t>读取的温度</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>01B1</t>
+  </si>
+  <si>
     <t>CH2</t>
   </si>
   <si>
@@ -3382,6 +3882,9 @@
     <t>001C</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
     <t>CH3</t>
   </si>
   <si>
@@ -3409,6 +3912,9 @@
     <t>0026</t>
   </si>
   <si>
+    <t>1003</t>
+  </si>
+  <si>
     <t>CH4</t>
   </si>
   <si>
@@ -3436,6 +3942,9 @@
     <t>0030</t>
   </si>
   <si>
+    <t>1004</t>
+  </si>
+  <si>
     <t>CH5</t>
   </si>
   <si>
@@ -3463,6 +3972,9 @@
     <t>003A</t>
   </si>
   <si>
+    <t>1005</t>
+  </si>
+  <si>
     <t>CH6</t>
   </si>
   <si>
@@ -3490,6 +4002,9 @@
     <t>0044</t>
   </si>
   <si>
+    <t>1006</t>
+  </si>
+  <si>
     <t>CH7</t>
   </si>
   <si>
@@ -3517,6 +4032,9 @@
     <t>004E</t>
   </si>
   <si>
+    <t>1007</t>
+  </si>
+  <si>
     <t>CH8</t>
   </si>
   <si>
@@ -3542,6 +4060,9 @@
   </si>
   <si>
     <t>0058</t>
+  </si>
+  <si>
+    <t>1008</t>
   </si>
 </sst>
 </file>
@@ -3549,12 +4070,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3602,9 +4123,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3615,9 +4159,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3631,8 +4182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3653,45 +4205,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3699,17 +4212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3731,8 +4236,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3760,6 +4281,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -3770,7 +4297,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3782,13 +4399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3800,49 +4423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3854,61 +4435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3926,7 +4459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3938,19 +4471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3961,6 +4488,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3975,6 +4526,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4005,30 +4565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4040,15 +4576,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4069,10 +4596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4081,133 +4608,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4561,10 +5088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4804,66 +5331,64 @@
       </c>
     </row>
     <row r="12" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" ht="20.5" customHeight="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -4874,111 +5399,111 @@
     </row>
     <row r="15" ht="20.5" customHeight="1" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="20.5" customHeight="1" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="20.5" customHeight="1" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="20.5" customHeight="1" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="20.5" customHeight="1" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
@@ -4989,19 +5514,19 @@
     </row>
     <row r="20" ht="20.5" customHeight="1" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>23</v>
@@ -5011,138 +5536,136 @@
       </c>
     </row>
     <row r="21" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="20.5" customHeight="1" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="20.5" customHeight="1" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="20.5" customHeight="1" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" ht="20.5" customHeight="1" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>24</v>
@@ -5150,65 +5673,65 @@
     </row>
     <row r="27" ht="20.5" customHeight="1" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="20.5" customHeight="1" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="20.5" customHeight="1" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>23</v>
@@ -5218,1041 +5741,1212 @@
       </c>
     </row>
     <row r="30" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>7</v>
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="20.5" customHeight="1" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="20.5" customHeight="1" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>24</v>
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" ht="20.5" customHeight="1" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="20.5" customHeight="1" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="20.5" customHeight="1" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="20.5" customHeight="1" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="20.5" customHeight="1" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="39" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="40" ht="20.5" customHeight="1" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="20.5" customHeight="1" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="20.5" customHeight="1" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>30</v>
+      <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="20.5" customHeight="1" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" ht="20.5" customHeight="1" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" ht="20.5" customHeight="1" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="20.5" customHeight="1" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A48" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>7</v>
+      <c r="A48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="20.5" customHeight="1" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="20.5" customHeight="1" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="20.5" customHeight="1" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="20.5" customHeight="1" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>24</v>
+      <c r="A53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" ht="20.5" customHeight="1" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="20.5" customHeight="1" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="20.5" customHeight="1" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>7</v>
+      <c r="A57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="20.5" customHeight="1" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="20.5" customHeight="1" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="20.5" customHeight="1" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="20.5" customHeight="1" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="20.5" customHeight="1" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>23</v>
+      <c r="A63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" ht="20.5" customHeight="1" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="20.5" customHeight="1" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A66" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>7</v>
+      <c r="G66" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="20.5" customHeight="1" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="20.5" customHeight="1" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="20.5" customHeight="1" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="20.5" customHeight="1" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="20.5" customHeight="1" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="20.5" customHeight="1" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="E72" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" ht="20.5" customHeight="1" spans="1:7">
-      <c r="A73" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>23</v>
+      <c r="A73" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="74" ht="20.5" customHeight="1" spans="1:7">
       <c r="A74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A80" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A81" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="E81" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" ht="20.5" customHeight="1"/>
+    <row r="82" ht="20.5" customHeight="1" spans="1:7">
+      <c r="A82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F2"/>
